--- a/storage/excel/sum81.xlsx
+++ b/storage/excel/sum81.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>บทที่ 8 ข้อมูลด้านสังคมและเศรษฐกิจ</t>
   </si>
@@ -74,6 +74,9 @@
     <t>ตึก</t>
   </si>
   <si>
+    <t>no_ra27(8)</t>
+  </si>
+  <si>
     <t>บ้านเดี่ยว</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>บ้านครึ่งตึกครึ่งไม้</t>
   </si>
   <si>
+    <t>no_ra27(9)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    - ชั้นเดียว</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
     <t>บ้านที่ใช้วัสดุถาวรเป็นส่วนใหญ่</t>
   </si>
   <si>
+    <t>no_ra27(10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    - 2 ชั้น</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t>บ้านที่ใช้วัสดุไม่ถาวร</t>
   </si>
   <si>
+    <t>no_ra27(11)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    - มากกว่า 2 ชั้น</t>
   </si>
   <si>
@@ -122,10 +134,19 @@
     <t>บ้านที่ใช้วัสดุใช้แล้วอยู่ในสภาพผุพัง</t>
   </si>
   <si>
+    <t>no_ra27(12)</t>
+  </si>
+  <si>
     <t>ทาวน์เฮ้าส์/ทาวน์โฮม/บ้านแฝด</t>
   </si>
   <si>
     <t>บ้านที่ยังสร้างไม่เสร็จ</t>
+  </si>
+  <si>
+    <t>no_ra27(13)</t>
+  </si>
+  <si>
+    <t>no_ra27(1)</t>
   </si>
   <si>
     <t>ตึกแถว/ห้องแถว/อาคารพาณิชย์</t>
@@ -217,6 +238,17 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -258,17 +290,6 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -289,11 +310,11 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -301,10 +322,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,29 +346,26 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -711,62 +732,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
       <c r="BG1" s="1"/>
@@ -777,209 +798,209 @@
       <c r="BL1" s="1"/>
     </row>
     <row r="2" spans="1:64" customHeight="1" ht="19.5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
     </row>
     <row r="3" spans="1:64" customHeight="1" ht="19.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="13"/>
     </row>
     <row r="4" spans="1:64" customHeight="1" ht="19.5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1045,70 +1066,70 @@
       <c r="BL5" s="1"/>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="8"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="22" t="s">
+      <c r="AD6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="22" t="s">
+      <c r="AR6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
       <c r="BG6" s="1"/>
@@ -1119,70 +1140,70 @@
       <c r="BL6" s="1"/>
     </row>
     <row r="7" spans="1:64">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="15" t="s">
+      <c r="AR7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
       <c r="BG7" s="1"/>
@@ -1193,86 +1214,86 @@
       <c r="BL7" s="1"/>
     </row>
     <row r="8" spans="1:64">
-      <c r="A8" s="8"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="18" t="s">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="16" t="s">
+      <c r="AD8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="18" t="s">
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="16" t="s">
+      <c r="AR8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="19" t="s">
+      <c r="AS8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="18" t="s">
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
       <c r="BG8" s="1"/>
@@ -1283,110 +1304,110 @@
       <c r="BL8" s="1"/>
     </row>
     <row r="9" spans="1:64">
-      <c r="A9" s="8"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="19" t="s">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="19" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="19" t="s">
+      <c r="T9" s="21"/>
+      <c r="U9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="18" t="s">
+      <c r="V9" s="22"/>
+      <c r="W9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18" t="s">
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18" t="s">
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" s="18"/>
+      <c r="AB9" s="19"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="19" t="s">
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="19" t="s">
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="19" t="s">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="18" t="s">
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18" t="s">
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18" t="s">
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AP9" s="18"/>
+      <c r="AP9" s="19"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="19" t="s">
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="19" t="s">
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="19" t="s">
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="18" t="s">
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18" t="s">
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18" t="s">
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BD9" s="18"/>
+      <c r="BD9" s="19"/>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="1"/>
@@ -1397,156 +1418,156 @@
       <c r="BL9" s="1"/>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="9" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Z10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="9" t="s">
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="9" t="s">
+      <c r="AF10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AG10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AH10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AI10" s="9" t="s">
+      <c r="AI10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AJ10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AK10" s="9" t="s">
+      <c r="AK10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AL10" s="9" t="s">
+      <c r="AL10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AM10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AO10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AP10" s="10" t="s">
+      <c r="AP10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="9" t="s">
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AT10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AU10" s="9" t="s">
+      <c r="AU10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AV10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AW10" s="9" t="s">
+      <c r="AW10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AX10" s="9" t="s">
+      <c r="AX10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AY10" s="9" t="s">
+      <c r="AY10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AZ10" s="9" t="s">
+      <c r="AZ10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BA10" s="9" t="s">
+      <c r="BA10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BB10" s="9" t="s">
+      <c r="BB10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BC10" s="9" t="s">
+      <c r="BC10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BD10" s="10" t="s">
+      <c r="BD10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="BE10" s="3"/>
@@ -1559,28 +1580,18 @@
       <c r="BL10" s="1"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23">
-        <v>825838</v>
-      </c>
-      <c r="D11" s="23">
-        <v>58.41</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1079432</v>
-      </c>
-      <c r="F11" s="23">
-        <v>35.35</v>
-      </c>
-      <c r="G11" s="24">
-        <v>2094314.197483</v>
-      </c>
-      <c r="H11" s="24">
-        <v>46.88</v>
-      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1589,25 +1600,25 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="24">
-        <v>1283032</v>
+        <v>1224379.4249754</v>
       </c>
       <c r="R11" s="24">
-        <v>90.75</v>
+        <v>86.603617337381</v>
       </c>
       <c r="S11" s="24">
-        <v>2893453</v>
+        <v>2961409.364922</v>
       </c>
       <c r="T11" s="24">
-        <v>94.76</v>
+        <v>96.990353231305</v>
       </c>
       <c r="U11" s="24">
-        <v>4143592.6395462</v>
+        <v>4184159.0445606</v>
       </c>
       <c r="V11" s="24">
-        <v>92.76</v>
+        <v>93.666597745249</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1617,25 +1628,25 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE11" s="24">
-        <v>1155819</v>
+        <v>1102798.6965485</v>
       </c>
       <c r="AF11" s="24">
-        <v>81.75</v>
+        <v>78.003888637685</v>
       </c>
       <c r="AG11" s="24">
-        <v>2649189</v>
+        <v>2710512.324106</v>
       </c>
       <c r="AH11" s="24">
-        <v>86.76</v>
+        <v>88.773119605425</v>
       </c>
       <c r="AI11" s="24">
-        <v>3763933.3886779</v>
+        <v>3811621.2593927</v>
       </c>
       <c r="AJ11" s="24">
-        <v>84.26</v>
+        <v>85.326965695748</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
@@ -1645,25 +1656,25 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS11" s="24">
-        <v>1263283</v>
+        <v>1207447.0133167</v>
       </c>
       <c r="AT11" s="24">
-        <v>89.36</v>
+        <v>85.405942768555</v>
       </c>
       <c r="AU11" s="24">
-        <v>2550406</v>
+        <v>2607496.8440538</v>
       </c>
       <c r="AV11" s="24">
-        <v>83.53</v>
+        <v>85.399216653369</v>
       </c>
       <c r="AW11" s="24">
-        <v>3861448.1534469</v>
+        <v>3814944.9127411</v>
       </c>
       <c r="AX11" s="24">
-        <v>86.44</v>
+        <v>85.401369010229</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -1681,28 +1692,18 @@
       <c r="BL11" s="1"/>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="23">
-        <v>462456</v>
-      </c>
-      <c r="D12" s="24">
-        <v>32.71</v>
-      </c>
-      <c r="E12" s="24">
-        <v>1212340</v>
-      </c>
-      <c r="F12" s="24">
-        <v>39.71</v>
-      </c>
-      <c r="G12" s="24">
-        <v>1617452.5834525</v>
-      </c>
-      <c r="H12" s="24">
-        <v>36.21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1711,25 +1712,25 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="24">
-        <v>801553</v>
+        <v>685433.1781779</v>
       </c>
       <c r="R12" s="24">
-        <v>56.7</v>
+        <v>48.48251404948</v>
       </c>
       <c r="S12" s="24">
-        <v>1720626</v>
+        <v>1737769.4529172</v>
       </c>
       <c r="T12" s="24">
-        <v>56.35</v>
+        <v>56.914412127366</v>
       </c>
       <c r="U12" s="24">
-        <v>2524991.1081019</v>
+        <v>2421879.6123226</v>
       </c>
       <c r="V12" s="24">
-        <v>56.52</v>
+        <v>54.216204742443</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1739,25 +1740,25 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE12" s="24">
-        <v>56687</v>
+        <v>53258.942355662</v>
       </c>
       <c r="AF12" s="24">
-        <v>4.01</v>
+        <v>3.7671468251405</v>
       </c>
       <c r="AG12" s="24">
-        <v>17960</v>
+        <v>18478.828049612</v>
       </c>
       <c r="AH12" s="24">
-        <v>0.59</v>
+        <v>0.60520780445347</v>
       </c>
       <c r="AI12" s="24">
-        <v>102694.48015762</v>
+        <v>72233.898874029</v>
       </c>
       <c r="AJ12" s="24">
-        <v>2.3</v>
+        <v>1.6170282910733</v>
       </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -1767,25 +1768,25 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS12" s="24">
-        <v>309850</v>
+        <v>292095.33386215</v>
       </c>
       <c r="AT12" s="24">
-        <v>21.92</v>
+        <v>20.660680834571</v>
       </c>
       <c r="AU12" s="24">
-        <v>713036</v>
+        <v>733246.71805251</v>
       </c>
       <c r="AV12" s="24">
-        <v>23.35</v>
+        <v>24.014869079568</v>
       </c>
       <c r="AW12" s="24">
-        <v>1011110.7078568</v>
+        <v>1024815.7583122</v>
       </c>
       <c r="AX12" s="24">
-        <v>22.63</v>
+        <v>22.941528841169</v>
       </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
@@ -1803,28 +1804,18 @@
       <c r="BL12" s="1"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="23">
-        <v>191133</v>
-      </c>
-      <c r="D13" s="24">
-        <v>13.52</v>
-      </c>
-      <c r="E13" s="24">
-        <v>680706</v>
-      </c>
-      <c r="F13" s="24">
-        <v>22.29</v>
-      </c>
-      <c r="G13" s="24">
-        <v>799906.79635945</v>
-      </c>
-      <c r="H13" s="24">
-        <v>17.91</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1833,25 +1824,25 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
       <c r="P13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="24">
-        <v>585925</v>
+        <v>522122.8750042</v>
       </c>
       <c r="R13" s="24">
-        <v>41.44</v>
+        <v>36.931141399134</v>
       </c>
       <c r="S13" s="24">
-        <v>1199768</v>
+        <v>1218078.9895177</v>
       </c>
       <c r="T13" s="24">
-        <v>39.29</v>
+        <v>39.893813012258</v>
       </c>
       <c r="U13" s="24">
-        <v>1803317.3912138</v>
+        <v>1739737.0023847</v>
       </c>
       <c r="V13" s="24">
-        <v>40.37</v>
+        <v>38.945758096058</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1861,25 +1852,25 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AE13" s="24">
-        <v>177020</v>
+        <v>167102.58914515</v>
       </c>
       <c r="AF13" s="24">
-        <v>12.52</v>
+        <v>11.819611136232</v>
       </c>
       <c r="AG13" s="24">
-        <v>105967</v>
+        <v>110804.31493363</v>
       </c>
       <c r="AH13" s="24">
-        <v>3.47</v>
+        <v>3.6289983317618</v>
       </c>
       <c r="AI13" s="24">
-        <v>357180.00416182</v>
+        <v>279192.06364772</v>
       </c>
       <c r="AJ13" s="24">
-        <v>8</v>
+        <v>6.2499944291921</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -1889,25 +1880,25 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AS13" s="24">
-        <v>1773</v>
+        <v>1651.4882123894</v>
       </c>
       <c r="AT13" s="24">
-        <v>0.13</v>
+        <v>0.11681415929204</v>
       </c>
       <c r="AU13" s="24">
-        <v>12572</v>
+        <v>12917.905562486</v>
       </c>
       <c r="AV13" s="24">
-        <v>0.41</v>
+        <v>0.4230797127729</v>
       </c>
       <c r="AW13" s="24">
-        <v>11997.671543754</v>
+        <v>14521.338749435</v>
       </c>
       <c r="AX13" s="24">
-        <v>0.27</v>
+        <v>0.32507473565902</v>
       </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
@@ -1925,28 +1916,18 @@
       <c r="BL13" s="1"/>
     </row>
     <row r="14" spans="1:64">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1754</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="24">
-        <v>3592</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="G14" s="24">
-        <v>5398.6452835963</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0.12</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1955,25 +1936,25 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="24">
-        <v>84874</v>
+        <v>16823.371793295</v>
       </c>
       <c r="R14" s="24">
-        <v>6</v>
+        <v>1.1899618887669</v>
       </c>
       <c r="S14" s="24">
-        <v>44901</v>
+        <v>5560.9224871256</v>
       </c>
       <c r="T14" s="24">
-        <v>1.47</v>
+        <v>0.18212809168057</v>
       </c>
       <c r="U14" s="24">
-        <v>166933.22514684</v>
+        <v>22542.42985332</v>
       </c>
       <c r="V14" s="24">
-        <v>3.74</v>
+        <v>0.50463490674819</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1983,25 +1964,25 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="24">
-        <v>44054</v>
+        <v>42829.653656741</v>
       </c>
       <c r="AF14" s="24">
-        <v>3.12</v>
+        <v>3.0294554615335</v>
       </c>
       <c r="AG14" s="24">
-        <v>120336</v>
+        <v>122408.9480808</v>
       </c>
       <c r="AH14" s="24">
-        <v>3.94</v>
+        <v>4.0090665119315</v>
       </c>
       <c r="AI14" s="24">
-        <v>157625.97730837</v>
+        <v>165084.89449422</v>
       </c>
       <c r="AJ14" s="24">
-        <v>3.53</v>
+        <v>3.6955909758042</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -2011,25 +1992,25 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AS14" s="24">
-        <v>3528</v>
+        <v>3405.8063145792</v>
       </c>
       <c r="AT14" s="24">
-        <v>0.25</v>
+        <v>0.24090175053291</v>
       </c>
       <c r="AU14" s="24">
-        <v>37717</v>
+        <v>38494.60560383</v>
       </c>
       <c r="AV14" s="24">
-        <v>1.24</v>
+        <v>1.2607528831508</v>
       </c>
       <c r="AW14" s="24">
-        <v>33164.250446962</v>
+        <v>41740.390748654</v>
       </c>
       <c r="AX14" s="24">
-        <v>0.74</v>
+        <v>0.93440052071307</v>
       </c>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -2047,28 +2028,18 @@
       <c r="BL14" s="1"/>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2077,25 +2048,25 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
       <c r="P15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="24">
-        <v>67272</v>
+        <v>63476.361299399</v>
       </c>
       <c r="R15" s="24">
-        <v>4.76</v>
+        <v>4.4898520767392</v>
       </c>
       <c r="S15" s="24">
-        <v>19756</v>
+        <v>20447.629360267</v>
       </c>
       <c r="T15" s="24">
-        <v>0.65</v>
+        <v>0.66968883731051</v>
       </c>
       <c r="U15" s="24">
-        <v>120730.90176856</v>
+        <v>84523.398720977</v>
       </c>
       <c r="V15" s="24">
-        <v>2.7</v>
+        <v>1.8921410739277</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2105,25 +2076,25 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="24">
-        <v>42280</v>
+        <v>41178.165444351</v>
       </c>
       <c r="AF15" s="24">
-        <v>2.99</v>
+        <v>2.9126413022415</v>
       </c>
       <c r="AG15" s="24">
-        <v>64658</v>
+        <v>65349.144066149</v>
       </c>
       <c r="AH15" s="24">
-        <v>2.12</v>
+        <v>2.1402770726046</v>
       </c>
       <c r="AI15" s="24">
-        <v>114094.01836665</v>
+        <v>106648.49840126</v>
       </c>
       <c r="AJ15" s="24">
-        <v>2.55</v>
+        <v>2.3874336260884</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -2132,7 +2103,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="11" t="s">
+      <c r="AR15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="AS15" s="2"/>
@@ -2157,28 +2128,18 @@
       <c r="BL15" s="1"/>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2187,25 +2148,25 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
       <c r="P16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="24">
-        <v>801553</v>
+        <v>21983.496210064</v>
       </c>
       <c r="R16" s="24">
-        <v>56.7</v>
+        <v>1.5549512305407</v>
       </c>
       <c r="S16" s="24">
-        <v>1720626</v>
+        <v>7443.3534365707</v>
       </c>
       <c r="T16" s="24">
-        <v>56.35</v>
+        <v>0.24378037281497</v>
       </c>
       <c r="U16" s="24">
-        <v>2524991.1081019</v>
+        <v>29632.580745705</v>
       </c>
       <c r="V16" s="24">
-        <v>56.52</v>
+        <v>0.66335504728719</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -2214,7 +2175,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="11" t="s">
+      <c r="AD16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="AE16" s="2"/>
@@ -2253,28 +2214,18 @@
       <c r="BL16" s="1"/>
     </row>
     <row r="17" spans="1:64">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2283,25 +2234,25 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
       <c r="P17" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="24">
-        <v>585925</v>
+        <v>21572.176650862</v>
       </c>
       <c r="R17" s="24">
-        <v>41.44</v>
+        <v>1.5258575027453</v>
       </c>
       <c r="S17" s="24">
-        <v>1199768</v>
+        <v>9239.414024806</v>
       </c>
       <c r="T17" s="24">
-        <v>39.29</v>
+        <v>0.30260390222674</v>
       </c>
       <c r="U17" s="24">
-        <v>1803317.3912138</v>
+        <v>31003.526994413</v>
       </c>
       <c r="V17" s="24">
-        <v>40.37</v>
+        <v>0.69404505439268</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -2341,8 +2292,8 @@
       <c r="BF17" s="3"/>
     </row>
     <row r="18" spans="1:64">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4"/>
@@ -2359,25 +2310,25 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="24">
-        <v>84874</v>
+        <v>19920.688438473</v>
       </c>
       <c r="R18" s="24">
-        <v>6</v>
+        <v>1.4090433434533</v>
       </c>
       <c r="S18" s="24">
-        <v>44901</v>
+        <v>3764.8618988903</v>
       </c>
       <c r="T18" s="24">
-        <v>1.47</v>
+        <v>0.1233045622688</v>
       </c>
       <c r="U18" s="24">
-        <v>166933.22514684</v>
+        <v>23887.290980859</v>
       </c>
       <c r="V18" s="24">
-        <v>3.74</v>
+        <v>0.53474097224783</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -2417,7 +2368,7 @@
       <c r="BF18" s="3"/>
     </row>
     <row r="19" spans="1:64">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2433,25 +2384,25 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="24">
-        <v>100741</v>
+        <v>96088.596012402</v>
       </c>
       <c r="R19" s="24">
-        <v>7.13</v>
+        <v>6.796602286674</v>
       </c>
       <c r="S19" s="24">
-        <v>50289</v>
+        <v>52621.696223254</v>
       </c>
       <c r="T19" s="24">
-        <v>1.65</v>
+        <v>1.7234351200406</v>
       </c>
       <c r="U19" s="24">
-        <v>195941.97201286</v>
+        <v>149506.30463237</v>
       </c>
       <c r="V19" s="24">
-        <v>4.39</v>
+        <v>3.3468486133633</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -2491,7 +2442,7 @@
       <c r="BF19" s="3"/>
     </row>
     <row r="20" spans="1:64">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2507,25 +2458,25 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="24">
-        <v>801553</v>
+        <v>33235.424027388</v>
       </c>
       <c r="R20" s="24">
-        <v>56.7</v>
+        <v>2.3508300497384</v>
       </c>
       <c r="S20" s="24">
-        <v>1720626</v>
+        <v>20706.740443896</v>
       </c>
       <c r="T20" s="24">
-        <v>56.35</v>
+        <v>0.67817509247842</v>
       </c>
       <c r="U20" s="24">
-        <v>2524991.1081019</v>
+        <v>54204.614739071</v>
       </c>
       <c r="V20" s="24">
-        <v>56.52</v>
+        <v>1.2134246788016</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -2565,8 +2516,8 @@
       <c r="BF20" s="3"/>
     </row>
     <row r="21" spans="1:64">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2581,25 +2532,25 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="24">
-        <v>585925</v>
+        <v>28795.108839222</v>
       </c>
       <c r="R21" s="24">
-        <v>41.44</v>
+        <v>2.0367547316065</v>
       </c>
       <c r="S21" s="24">
-        <v>1199768</v>
+        <v>5560.9224871256</v>
       </c>
       <c r="T21" s="24">
-        <v>39.29</v>
+        <v>0.18212809168057</v>
       </c>
       <c r="U21" s="24">
-        <v>1803317.3912138</v>
+        <v>34647.034115763</v>
       </c>
       <c r="V21" s="24">
-        <v>40.37</v>
+        <v>0.77560861645686</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -2639,9 +2590,9 @@
       <c r="BF21" s="3"/>
     </row>
     <row r="22" spans="1:64">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2655,25 +2606,25 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="24">
-        <v>84874</v>
+        <v>34058.063145792</v>
       </c>
       <c r="R22" s="24">
-        <v>6</v>
+        <v>2.4090175053291</v>
       </c>
       <c r="S22" s="24">
-        <v>44901</v>
+        <v>26354.033292232</v>
       </c>
       <c r="T22" s="24">
-        <v>1.47</v>
+        <v>0.86313193588163</v>
       </c>
       <c r="U22" s="24">
-        <v>166933.22514684</v>
+        <v>60654.655777537</v>
       </c>
       <c r="V22" s="24">
-        <v>3.74</v>
+        <v>1.3578153181048</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -2713,9 +2664,9 @@
       <c r="BF22" s="3"/>
     </row>
     <row r="23" spans="1:64">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2729,25 +2680,25 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="24">
-        <v>31911</v>
+        <v>29829.617712809</v>
       </c>
       <c r="R23" s="24">
-        <v>2.26</v>
+        <v>2.1099282992055</v>
       </c>
       <c r="S23" s="24">
-        <v>17960</v>
+        <v>18824.309494451</v>
       </c>
       <c r="T23" s="24">
-        <v>0.59</v>
+        <v>0.61652281134402</v>
       </c>
       <c r="U23" s="24">
-        <v>63552.333056312</v>
+        <v>48888.252086101</v>
       </c>
       <c r="V23" s="24">
-        <v>1.42</v>
+        <v>1.0944125674597</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2787,9 +2738,9 @@
       <c r="BF23" s="3"/>
     </row>
     <row r="24" spans="1:64">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2803,25 +2754,25 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="24">
-        <v>801553</v>
+        <v>29829.617712809</v>
       </c>
       <c r="R24" s="24">
-        <v>56.7</v>
+        <v>2.1099282992055</v>
       </c>
       <c r="S24" s="24">
-        <v>1720626</v>
+        <v>18824.309494451</v>
       </c>
       <c r="T24" s="24">
-        <v>56.35</v>
+        <v>0.61652281134402</v>
       </c>
       <c r="U24" s="24">
-        <v>2524991.1081019</v>
+        <v>48888.252086101</v>
       </c>
       <c r="V24" s="24">
-        <v>56.52</v>
+        <v>1.0944125674597</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -2861,9 +2812,9 @@
       <c r="BF24" s="3"/>
     </row>
     <row r="25" spans="1:64">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2877,25 +2828,25 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="24">
-        <v>585925</v>
+        <v>0</v>
       </c>
       <c r="R25" s="24">
-        <v>41.44</v>
+        <v>0</v>
       </c>
       <c r="S25" s="24">
-        <v>1199768</v>
+        <v>0</v>
       </c>
       <c r="T25" s="24">
-        <v>39.29</v>
+        <v>0</v>
       </c>
       <c r="U25" s="24">
-        <v>1803317.3912138</v>
+        <v>0</v>
       </c>
       <c r="V25" s="24">
-        <v>40.37</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -2935,9 +2886,9 @@
       <c r="BF25" s="3"/>
     </row>
     <row r="26" spans="1:64">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2951,25 +2902,25 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="24">
-        <v>84874</v>
+        <v>0</v>
       </c>
       <c r="R26" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S26" s="24">
-        <v>44901</v>
+        <v>0</v>
       </c>
       <c r="T26" s="24">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U26" s="24">
-        <v>166933.22514684</v>
+        <v>0</v>
       </c>
       <c r="V26" s="24">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -3009,9 +2960,9 @@
       <c r="BF26" s="3"/>
     </row>
     <row r="27" spans="1:64">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3025,7 +2976,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="24">
         <v>0</v>
@@ -3034,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="24">
-        <v>1796</v>
+        <v>0</v>
       </c>
       <c r="T27" s="24">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U27" s="24">
-        <v>1313.8018552368</v>
+        <v>0</v>
       </c>
       <c r="V27" s="24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -3083,9 +3034,9 @@
       <c r="BF27" s="3"/>
     </row>
     <row r="28" spans="1:64">
-      <c r="A28" s="8"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3099,25 +3050,25 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="24">
-        <v>801553</v>
+        <v>0</v>
       </c>
       <c r="R28" s="24">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="S28" s="24">
-        <v>1720626</v>
+        <v>0</v>
       </c>
       <c r="T28" s="24">
-        <v>56.35</v>
+        <v>0</v>
       </c>
       <c r="U28" s="24">
-        <v>2524991.1081019</v>
+        <v>0</v>
       </c>
       <c r="V28" s="24">
-        <v>56.52</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -3157,7 +3108,7 @@
       <c r="BF28" s="3"/>
     </row>
     <row r="29" spans="1:64">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3173,25 +3124,25 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="24">
-        <v>585925</v>
+        <v>0</v>
       </c>
       <c r="R29" s="24">
-        <v>41.44</v>
+        <v>0</v>
       </c>
       <c r="S29" s="24">
-        <v>1199768</v>
+        <v>0</v>
       </c>
       <c r="T29" s="24">
-        <v>39.29</v>
+        <v>0</v>
       </c>
       <c r="U29" s="24">
-        <v>1803317.3912138</v>
+        <v>0</v>
       </c>
       <c r="V29" s="24">
-        <v>40.37</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -3231,7 +3182,7 @@
       <c r="BF29" s="3"/>
     </row>
     <row r="30" spans="1:64">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3247,25 +3198,25 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="24">
-        <v>84874</v>
+        <v>0</v>
       </c>
       <c r="R30" s="24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S30" s="24">
-        <v>44901</v>
+        <v>0</v>
       </c>
       <c r="T30" s="24">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U30" s="24">
-        <v>166933.22514684</v>
+        <v>0</v>
       </c>
       <c r="V30" s="24">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -3305,7 +3256,7 @@
       <c r="BF30" s="3"/>
     </row>
     <row r="31" spans="1:64">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3320,7 +3271,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Q31" s="2"/>
@@ -3367,7 +3318,7 @@
       <c r="BF31" s="3"/>
     </row>
     <row r="32" spans="1:64">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
